--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_9.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4812058.022867889</v>
+        <v>4812058.02286789</v>
       </c>
     </row>
     <row r="11">
@@ -1181,25 +1181,25 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6263639150735093</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="X8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.62029119463083</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G11" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>25.62029119463083</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T13" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2968606583479628</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.62029119463083</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,52 +1853,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H17" t="n">
+      <c r="S17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I17" t="n">
+      <c r="T17" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="Y18" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="U18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T19" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.08555033932988</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,70 +2321,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>232.3303155802432</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,22 +2403,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>119.2747700837737</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>39.34788763352459</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>110.5627721675628</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.411629820609999</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,70 +2792,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>38.47932453505421</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>9.321340394436804</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H32" t="n">
-        <v>215.3939976830282</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.85921600351676</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>74.83605878352238</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>131.5001063750227</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>167.7790445900539</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>29.85921600351671</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>32.51853971732223</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.0733653420174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>46.22384331484438</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>29.20196285830944</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>66.89667608853429</v>
       </c>
       <c r="Y39" t="n">
-        <v>199.3400456387619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0441028249983</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.19247558432687</v>
       </c>
       <c r="U42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L8" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N8" t="n">
         <v>77.1170764958388</v>
@@ -4829,22 +4829,22 @@
         <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U8" t="n">
-        <v>66.51046739551762</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="V8" t="n">
-        <v>66.51046739551762</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="W8" t="n">
-        <v>65.87777657221105</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="X8" t="n">
-        <v>39.99869455743244</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="Y8" t="n">
         <v>14.11961254265382</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F9" t="n">
-        <v>80.44100199269204</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G9" t="n">
-        <v>54.56191997791342</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H9" t="n">
-        <v>28.6828379631348</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I9" t="n">
         <v>2.80375594835618</v>
@@ -4884,16 +4884,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O9" t="n">
         <v>51.75298821315428</v>
@@ -4905,28 +4905,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="V9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="W9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="X9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="Y9" t="n">
-        <v>102.4811647785233</v>
+        <v>2.80375594835618</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4972,40 +4972,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73223474306219</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>47.97407071350496</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09498869872634</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.049623295570466</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5024,16 +5024,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="E11" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F11" t="n">
-        <v>50.72300074896609</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G11" t="n">
-        <v>24.84391873418747</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I11" t="n">
         <v>2.049623295570466</v>
@@ -5042,16 +5042,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L11" t="n">
-        <v>52.77779986093951</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M11" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N11" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
         <v>77.1170764958388</v>
@@ -5121,19 +5121,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L12" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>52.77779986093951</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="C13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="D13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="E13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="F13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K13" t="n">
         <v>2.049623295570466</v>
@@ -5224,25 +5224,25 @@
         <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09498869872634</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="T13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="U13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="V13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="W13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="X13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5361,16 +5361,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
         <v>77.1170764958388</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1813055276668</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H16" t="n">
-        <v>76.30222351288816</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I16" t="n">
-        <v>50.42314149810954</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="J16" t="n">
         <v>24.54405948333093</v>
@@ -5446,7 +5446,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
@@ -5455,31 +5455,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L17" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M17" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N17" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
         <v>110.3601010412646</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
         <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
         <v>110.3601010412646</v>
@@ -5619,25 +5619,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U18" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V18" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W18" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X18" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y18" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G19" t="n">
         <v>2.207202020825291</v>
@@ -5698,25 +5698,25 @@
         <v>80.62014129470579</v>
       </c>
       <c r="S19" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="T19" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="U19" t="n">
         <v>52.75142891054807</v>
       </c>
-      <c r="T19" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="V19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3887892094411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>472.4543795481899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>325.9198215750748</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>187.1889961576903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.1447485139397</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C24" t="n">
-        <v>346.6917192328127</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D24" t="n">
-        <v>197.7573095715614</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E24" t="n">
-        <v>197.7573095715614</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="F24" t="n">
-        <v>197.7573095715614</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>59.02648415417696</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.1447485139397</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="25">
@@ -6163,19 +6163,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>577.2332497330343</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.2332497330343</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>290.1981659616912</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C27" t="n">
-        <v>290.1981659616912</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>29.54197255149339</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>290.1981659616912</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>290.1981659616912</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y27" t="n">
-        <v>290.1981659616912</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6415,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
         <v>829.5248650203655</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6452,7 +6452,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>485.4562706347935</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C30" t="n">
-        <v>311.0032413536665</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D30" t="n">
-        <v>311.0032413536665</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>311.0032413536665</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>311.0032413536665</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>172.272415936282</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>58.90328034386128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>485.4562706347935</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y30" t="n">
-        <v>485.4562706347935</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="31">
@@ -6646,16 +6646,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C32" t="n">
-        <v>234.8012144439637</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="D32" t="n">
-        <v>234.8012144439637</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="E32" t="n">
-        <v>234.8012144439637</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="F32" t="n">
-        <v>234.8012144439637</v>
+        <v>426.43660147347</v>
       </c>
       <c r="G32" t="n">
-        <v>234.8012144439637</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="H32" t="n">
         <v>17.23151981464226</v>
@@ -6707,10 +6707,10 @@
         <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N32" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O32" t="n">
         <v>771.915935440062</v>
@@ -6719,31 +6719,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>851.4843753638859</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>700.1014279485831</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>669.9406037026066</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>452.3709090732851</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.8012144439637</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>325.2670720263557</v>
+        <v>268.0306603177695</v>
       </c>
       <c r="C33" t="n">
-        <v>150.8140427452286</v>
+        <v>93.57763103664249</v>
       </c>
       <c r="D33" t="n">
-        <v>150.8140427452286</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="E33" t="n">
-        <v>150.8140427452286</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="F33" t="n">
-        <v>150.8140427452286</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="G33" t="n">
         <v>17.98565246742797</v>
@@ -6780,49 +6780,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>465.6924554125641</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N33" t="n">
-        <v>465.6924554125641</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>678.932513118762</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>760.4064612849986</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>542.8367666556771</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V33" t="n">
-        <v>542.8367666556771</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W33" t="n">
-        <v>325.2670720263557</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X33" t="n">
-        <v>325.2670720263557</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y33" t="n">
-        <v>325.2670720263557</v>
+        <v>436.2459973378375</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>754.3578252495552</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>793.5458634417773</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>837.2367140972136</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>861.5759907321129</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Q34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="R34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="S34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="T34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="U34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="V34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="W34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="X34" t="n">
-        <v>861.5759907321129</v>
+        <v>149.0148802694519</v>
       </c>
       <c r="Y34" t="n">
-        <v>727.0437002418422</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>416.3449861052429</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>198.7752914759215</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>29.30150906172561</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L35" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>513.5624350164212</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
         <v>622.7209852974139</v>
@@ -6959,28 +6959,28 @@
         <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>851.4843753638859</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S35" t="n">
-        <v>851.4843753638859</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="T35" t="n">
-        <v>851.4843753638859</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="U35" t="n">
-        <v>633.9146807345644</v>
+        <v>482.5317333192617</v>
       </c>
       <c r="V35" t="n">
-        <v>416.3449861052429</v>
+        <v>264.9620386899402</v>
       </c>
       <c r="W35" t="n">
-        <v>416.3449861052429</v>
+        <v>47.39234406061874</v>
       </c>
       <c r="X35" t="n">
-        <v>416.3449861052429</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y35" t="n">
-        <v>416.3449861052429</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>464.1342098987335</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="C36" t="n">
-        <v>464.1342098987335</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="D36" t="n">
-        <v>315.1998002374822</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="E36" t="n">
-        <v>155.9623452320268</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="F36" t="n">
-        <v>155.9623452320268</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="G36" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="H36" t="n">
-        <v>17.23151981464226</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="I36" t="n">
-        <v>17.23151981464226</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J36" t="n">
         <v>17.23151981464226</v>
@@ -7023,16 +7023,16 @@
         <v>230.4715775208402</v>
       </c>
       <c r="M36" t="n">
+        <v>230.4715775208402</v>
+      </c>
+      <c r="N36" t="n">
         <v>443.7116352270382</v>
       </c>
-      <c r="N36" t="n">
-        <v>578.9413745125856</v>
-      </c>
       <c r="O36" t="n">
-        <v>792.1814322187836</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P36" t="n">
-        <v>792.1814322187836</v>
+        <v>839.595170546587</v>
       </c>
       <c r="Q36" t="n">
         <v>861.5759907321129</v>
@@ -7041,25 +7041,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T36" t="n">
-        <v>861.5759907321129</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U36" t="n">
-        <v>861.5759907321129</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="V36" t="n">
-        <v>861.5759907321129</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="W36" t="n">
-        <v>644.0062961027915</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="X36" t="n">
-        <v>644.0062961027915</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="Y36" t="n">
-        <v>464.1342098987335</v>
+        <v>50.83266228290498</v>
       </c>
     </row>
     <row r="37">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J38" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
         <v>416.8664630901746</v>
@@ -7193,31 +7193,31 @@
         <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.5759907321129</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>710.1930433168102</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S38" t="n">
-        <v>499.0616598963603</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="T38" t="n">
-        <v>499.0616598963603</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="U38" t="n">
-        <v>281.4919652670388</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="V38" t="n">
-        <v>63.92227063771739</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="W38" t="n">
-        <v>17.23151981464226</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="X38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.23151981464226</v>
+        <v>459.4731123480227</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>355.8291375786776</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>578.9413745125856</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P39" t="n">
         <v>792.1814322187836</v>
@@ -7278,25 +7278,25 @@
         <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="U39" t="n">
-        <v>644.0062961027915</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="V39" t="n">
-        <v>426.43660147347</v>
+        <v>470.5889515534603</v>
       </c>
       <c r="W39" t="n">
-        <v>426.43660147347</v>
+        <v>253.0192569241389</v>
       </c>
       <c r="X39" t="n">
-        <v>218.5851012679371</v>
+        <v>185.4468568347103</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.23151981464226</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="40">
@@ -7363,7 +7363,7 @@
         <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>727.0437002418422</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
         <v>727.0437002418422</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>675.8841231162978</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
-        <v>460.3040588563555</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>244.7239945964131</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>244.7239945964131</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
-        <v>244.7239945964131</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="G41" t="n">
-        <v>244.7239945964131</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="H41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
-        <v>29.14393033647078</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
         <v>17.07394108938743</v>
@@ -7415,46 +7415,46 @@
         <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>300.1647985849684</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M41" t="n">
-        <v>511.4548195661379</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
-        <v>717.3093417733771</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6970544693717</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T41" t="n">
-        <v>843.6054391011446</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>675.8841231162978</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>675.8841231162978</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
-        <v>675.8841231162978</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X41" t="n">
-        <v>675.8841231162978</v>
+        <v>663.8141338692145</v>
       </c>
       <c r="Y41" t="n">
-        <v>675.8841231162978</v>
+        <v>448.2340696092722</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>17.07394108938743</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>228.3639620705569</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N42" t="n">
-        <v>439.6539830517264</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O42" t="n">
         <v>601.6590183426915</v>
@@ -7518,22 +7518,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>853.6970544693717</v>
+        <v>824.209705394294</v>
       </c>
       <c r="U42" t="n">
-        <v>638.1169902094293</v>
+        <v>608.6296411343517</v>
       </c>
       <c r="V42" t="n">
-        <v>422.536925949487</v>
+        <v>608.6296411343517</v>
       </c>
       <c r="W42" t="n">
-        <v>206.9568616895446</v>
+        <v>393.0495768744094</v>
       </c>
       <c r="X42" t="n">
-        <v>17.07394108938743</v>
+        <v>393.0495768744094</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>185.2892781094555</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>746.4788889868139</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>785.6669271790361</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>829.3577778344724</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>853.6970544693717</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>719.1647639791009</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>719.1647639791009</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>719.1647639791009</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>719.1647639791009</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V43" t="n">
-        <v>719.1647639791009</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="W43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>719.1647639791009</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>245.7101422396114</v>
+        <v>244.6749789590202</v>
       </c>
       <c r="L8" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
         <v>159.5946986089611</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>254.6833393357264</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
         <v>256.8532869499004</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L12" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8939,10 +8939,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>165.6020652806523</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M17" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N17" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N18" t="n">
         <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>160.4496841792801</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9732,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,13 +10355,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>253.1070822390753</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>339.6742254965835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10671,19 +10671,19 @@
         <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050465</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>267.937408331361</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>162.1846227582699</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>348.0675319949004</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>172.2192467505628</v>
+        <v>267.937408331361</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>314.1588986527692</v>
       </c>
       <c r="M41" t="n">
         <v>443.7704968446156</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>367.8635777812772</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>355.5582975393612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
-        <v>306.2376942332981</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -23069,13 +23069,13 @@
         <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23084,10 @@
         <v>348.6146048023395</v>
       </c>
       <c r="X8" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>123.2494512354109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>86.61515304186563</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>204.1216209230018</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2557545470806</v>
+        <v>384.3096932574806</v>
       </c>
       <c r="G11" t="n">
         <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>316.9084496315363</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>198.3963068423414</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T13" t="n">
-        <v>208.1006776791572</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6941187001108</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>67.73888892204195</v>
+        <v>93.06231945832479</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>394.5240408470375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>237.0350578730948</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23859,13 +23859,13 @@
         <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>175.8634344455351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23874,10 +23874,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="19">
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23938,16 +23938,16 @@
         <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>263.8702699959815</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24035,7 +24035,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>36.14989389716658</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24209,13 +24209,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,22 +24291,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>25.79444230961022</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>72.88755660297187</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24336,13 +24336,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>284.3390338194077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>36.88229339707597</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>79.98500303080507</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24655,13 +24655,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,25 +24725,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>50.91730831636087</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24819,13 +24819,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>196.3613553828675</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H32" t="n">
-        <v>124.0808044327389</v>
+        <v>149.755768956556</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1608535827286</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>7.701851881103124</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>72.60900678111638</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>5.843410788187981</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,7 +25050,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>149.8788940879793</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>42.69684498035204</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25214,10 @@
         <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>339.8718846749523</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,25 +25236,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>56.87809313409284</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
-        <v>36.30098547789137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.60933043528701</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -25445,16 +25445,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>35.95165522480826</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3582607871067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>303.0171254025686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>340.5291378201596</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>10.54738439794659</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>138.8763091149432</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.342650138542439</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25603,10 +25603,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>151.8486281536646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>141.25877800334</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>85.30155008283819</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>181.7470092843135</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.9722531104947</v>
       </c>
       <c r="U42" t="n">
         <v>12.5171184636319</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>17.78889380932185</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350035.0587549793</v>
+        <v>350035.0587549795</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205639</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506790.0512205641</v>
+        <v>506790.0512205642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506790.0512205642</v>
+        <v>506790.0512205641</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488291.6158105899</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488291.6158105897</v>
+        <v>488291.6158105898</v>
       </c>
     </row>
     <row r="15">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
       <c r="D2" t="n">
-        <v>51644.51686548872</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="E2" t="n">
         <v>51644.51686548872</v>
       </c>
       <c r="F2" t="n">
-        <v>51644.51686548872</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="G2" t="n">
         <v>51885.6233062447</v>
       </c>
       <c r="H2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909957</v>
       </c>
       <c r="I2" t="n">
         <v>74772.30263909959</v>
       </c>
       <c r="J2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909958</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>72043.02528352961</v>
+        <v>72043.0252835296</v>
       </c>
       <c r="M2" t="n">
         <v>72043.0252835296</v>
       </c>
       <c r="N2" t="n">
-        <v>72043.0252835296</v>
+        <v>72043.02528352961</v>
       </c>
       <c r="O2" t="n">
         <v>71833.1935317696</v>
@@ -26424,10 +26424,10 @@
         <v>22.21667432804714</v>
       </c>
       <c r="E4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="F4" t="n">
-        <v>22.21667432804715</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="G4" t="n">
         <v>23.85668684891895</v>
@@ -26439,7 +26439,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14750.73248915087</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>14750.73248915088</v>
+        <v>14750.73248915089</v>
       </c>
       <c r="D6" t="n">
-        <v>8478.55543273894</v>
+        <v>8478.555432738955</v>
       </c>
       <c r="E6" t="n">
-        <v>50064.58648652711</v>
+        <v>50064.58648652712</v>
       </c>
       <c r="F6" t="n">
-        <v>50064.58648652711</v>
+        <v>50064.58648652713</v>
       </c>
       <c r="G6" t="n">
         <v>49644.4185221752</v>
       </c>
       <c r="H6" t="n">
-        <v>2355.314235302259</v>
+        <v>2355.314235302245</v>
       </c>
       <c r="I6" t="n">
         <v>59939.10137763395</v>
       </c>
       <c r="J6" t="n">
-        <v>59939.10137763394</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="K6" t="n">
-        <v>59939.10137763394</v>
+        <v>59939.10137763395</v>
       </c>
       <c r="L6" t="n">
         <v>58786.10234497164</v>
       </c>
       <c r="M6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497164</v>
       </c>
       <c r="N6" t="n">
-        <v>58786.10234497163</v>
+        <v>58786.10234497165</v>
       </c>
       <c r="O6" t="n">
         <v>58697.4577056471</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M8" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="P9" t="n">
         <v>25.62029119463083</v>
@@ -35343,7 +35343,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403969</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N11" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
         <v>25.62029119463083</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="Q15" t="n">
         <v>25.62029119463083</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M17" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N17" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36452,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36914,7 +36914,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,13 +37075,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>110.973048317057</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37315,7 +37315,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>110.2611618999926</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37391,19 +37391,19 @@
         <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="N36" t="n">
-        <v>136.5956962480277</v>
       </c>
       <c r="O36" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>117.7212987676277</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>40.87753466722953</v>
+        <v>136.5956962480277</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>78.39248368278189</v>
       </c>
       <c r="M41" t="n">
         <v>213.4242636173429</v>
@@ -37792,10 +37792,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>137.7653663595904</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>37.01765175063403</v>
+      </c>
+      <c r="O42" t="n">
         <v>213.4242636173429</v>
-      </c>
-      <c r="N42" t="n">
-        <v>213.4242636173429</v>
-      </c>
-      <c r="O42" t="n">
-        <v>163.6414497888537</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201732.117710107</v>
+        <v>304239.2234927444</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>2755553.591652931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>20120750.05383736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5201920.383830386</v>
+        <v>4890972.686918095</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.88091821707973</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X3" t="n">
-        <v>38.87161743162455</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="4">
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7904504476822691</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
-        <v>28.88091821707973</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.13217237922859</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.56635248423082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="10">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="16">
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.95466700954542</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.47884128361379</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>62.4162677022923</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>46.01752716430177</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="23">
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>222.3396163656984</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>135.4141600157168</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>58.30830115714291</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>154.9262549931295</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>200.5597446638417</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>39.66411970707848</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>188.6104553092291</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>7.127724369698701</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>188.6104553092291</v>
       </c>
       <c r="T38" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>83.47009590330809</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>24.17101418574137</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
     <row r="42">
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.22358840269319</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.9629518593743</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>34.16171340028615</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>56.49829895495575</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="W45" t="n">
-        <v>230.5219311756913</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.10852568854899</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T2" t="n">
-        <v>166.4370741486873</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U2" t="n">
-        <v>166.4370741486873</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V2" t="n">
-        <v>166.4370741486873</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W2" t="n">
-        <v>121.8591222504766</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X2" t="n">
-        <v>121.8591222504766</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y2" t="n">
-        <v>77.28117035226589</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X3" t="n">
-        <v>92.68647758675968</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.68647758675968</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>137.2644294849704</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S4" t="n">
-        <v>137.2644294849704</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T4" t="n">
-        <v>137.2644294849704</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U4" t="n">
-        <v>92.68647758675968</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V4" t="n">
-        <v>48.10852568854899</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W4" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>32.70321845405519</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U5" t="n">
-        <v>32.70321845405519</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N6" t="n">
-        <v>176.5286895169144</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>131.9507376187037</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W6" t="n">
-        <v>92.68647758675968</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X6" t="n">
-        <v>48.10852568854899</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.329008585976936</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="C7" t="n">
-        <v>4.329008585976936</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="D7" t="n">
-        <v>4.329008585976936</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="E7" t="n">
-        <v>4.329008585976936</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="F7" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418745</v>
       </c>
       <c r="G7" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418745</v>
       </c>
       <c r="H7" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418745</v>
       </c>
       <c r="I7" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>76.60208276374469</v>
       </c>
       <c r="S7" t="n">
-        <v>93.48491238239833</v>
+        <v>76.60208276374469</v>
       </c>
       <c r="T7" t="n">
-        <v>93.48491238239833</v>
+        <v>76.60208276374469</v>
       </c>
       <c r="U7" t="n">
-        <v>48.90696048418764</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="V7" t="n">
-        <v>48.90696048418764</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="W7" t="n">
-        <v>48.90696048418764</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="X7" t="n">
-        <v>48.90696048418764</v>
+        <v>50.72300074896607</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.329008585976936</v>
+        <v>50.72300074896607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T8" t="n">
-        <v>32.70321845405519</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U8" t="n">
-        <v>32.70321845405519</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D9" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R10" t="n">
-        <v>93.48491238239833</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S10" t="n">
-        <v>93.48491238239833</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T10" t="n">
-        <v>93.48491238239833</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U10" t="n">
-        <v>93.48491238239833</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V10" t="n">
-        <v>93.48491238239833</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R11" t="n">
-        <v>131.9507376187037</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S11" t="n">
-        <v>87.37278572049297</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T11" t="n">
-        <v>42.79483382228227</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U11" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V11" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N12" t="n">
-        <v>90.91227510121089</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O12" t="n">
-        <v>134.6031257566472</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V12" t="n">
-        <v>87.37278572049297</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W12" t="n">
-        <v>42.79483382228227</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X12" t="n">
-        <v>42.79483382228227</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.79483382228227</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.68647758675968</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C14" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.68647758675968</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L15" t="n">
-        <v>45.45613755060546</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S15" t="n">
-        <v>131.9507376187037</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T15" t="n">
-        <v>131.9507376187037</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U15" t="n">
-        <v>131.9507376187037</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V15" t="n">
-        <v>131.9507376187037</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W15" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X15" t="n">
-        <v>92.68647758675968</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C16" t="n">
-        <v>48.90696048418764</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D16" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T16" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U16" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V16" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W16" t="n">
-        <v>93.48491238239833</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X16" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>718.7806050553886</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C17" t="n">
-        <v>718.7806050553886</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D17" t="n">
-        <v>718.7806050553886</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E17" t="n">
-        <v>718.7806050553886</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.0119685275972</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C18" t="n">
-        <v>158.0119685275972</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D18" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>804.828190423508</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V18" t="n">
-        <v>569.6760821917653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W18" t="n">
-        <v>326.2273055476653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X18" t="n">
-        <v>326.2273055476653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y18" t="n">
-        <v>326.2273055476653</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W21" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X21" t="n">
-        <v>156.0631229240681</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.0631229240681</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y23" t="n">
-        <v>591.4512093066566</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6110,10 +6110,10 @@
         <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6408,13 +6408,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6499,16 +6499,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>475.3318284112885</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>78.93254965910239</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6548,10 +6548,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>706.3964594037951</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>471.2443511720524</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>227.7955745279523</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>502.0418569343998</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>260.5827106596789</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="U32" t="n">
-        <v>591.4512093066566</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>743.5010032091208</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>743.5010032091208</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.4306873286757</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.9776580475487</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.2468326301643</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>482.8700007201869</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>719.5241099840409</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R33" t="n">
-        <v>933.8659450146204</v>
+        <v>956.178219247895</v>
       </c>
       <c r="S33" t="n">
-        <v>933.8659450146204</v>
+        <v>956.178219247895</v>
       </c>
       <c r="T33" t="n">
-        <v>933.8659450146204</v>
+        <v>956.178219247895</v>
       </c>
       <c r="U33" t="n">
-        <v>705.6423267510095</v>
+        <v>727.9546009842841</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>727.9546009842841</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>486.4954547095631</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>446.4306873286757</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>446.4306873286757</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="E35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>114.4172127583938</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>294.4930643430524</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4686916059566</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>717.3232138131959</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>866.518163955844</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="U35" t="n">
-        <v>569.2254314512334</v>
+        <v>755.5709924562042</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="W35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="X35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>514.1118461814832</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>305.1430804282431</v>
       </c>
       <c r="C36" t="n">
-        <v>49.38115216564972</v>
+        <v>305.1430804282431</v>
       </c>
       <c r="D36" t="n">
-        <v>49.38115216564972</v>
+        <v>305.1430804282431</v>
       </c>
       <c r="E36" t="n">
-        <v>49.38115216564972</v>
+        <v>305.1430804282431</v>
       </c>
       <c r="F36" t="n">
-        <v>49.38115216564972</v>
+        <v>158.6085224551281</v>
       </c>
       <c r="G36" t="n">
-        <v>49.38115216564972</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>536.8806323706901</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>773.5347416345442</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>727.9546009842841</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>727.9546009842841</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>720.7548793987298</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>512.903379193197</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>305.1430804282431</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.19355363204125</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>122.1385702958803</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>302.2144218805389</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>519.190049143443</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>725.0445713506824</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>874.2395214933305</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>946.0866038796679</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>755.5709924562042</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>755.5709924562042</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>514.1118461814832</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>272.6526999067622</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>272.6526999067622</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>194.3307263188706</v>
       </c>
       <c r="C39" t="n">
-        <v>49.38115216564972</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.87769703774361</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>144.4811244427953</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>374.4442303111445</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>611.0983395749985</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>847.7524488388525</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>956.178219247895</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>956.178219247895</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>727.9546009842841</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>643.6413727991244</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>402.1822265244035</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>194.3307263188706</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>194.3307263188706</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>46.43768939267088</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>85.62572758489306</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>129.3165782403294</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>153.6558548752286</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>19.1235643849579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>54.28534770671146</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>54.28534770671146</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>54.28534770671146</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>54.28534770671146</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>54.28534770671146</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>723.7211995811692</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>872.9161497238173</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>879.9180154040181</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>728.5350679887154</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>503.7851612280474</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>279.0352544673794</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>54.28534770671146</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>619.4388494194218</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="C42" t="n">
-        <v>444.9858201382948</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="D42" t="n">
-        <v>444.9858201382948</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="E42" t="n">
-        <v>285.7483651328393</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="F42" t="n">
-        <v>285.7483651328393</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="G42" t="n">
-        <v>147.0175397154548</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="H42" t="n">
-        <v>33.64840412303413</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.0887695427637</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>487.0887695427637</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>707.3661531588943</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>665.2597240115772</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>451.1557322344314</v>
       </c>
       <c r="W42" t="n">
-        <v>619.4388494194218</v>
+        <v>226.4058254737635</v>
       </c>
       <c r="X42" t="n">
-        <v>619.4388494194218</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="Y42" t="n">
-        <v>619.4388494194218</v>
+        <v>18.55432526823062</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>601.5428246748836</v>
+        <v>513.8767765962745</v>
       </c>
       <c r="C44" t="n">
-        <v>601.5428246748836</v>
+        <v>513.8767765962745</v>
       </c>
       <c r="D44" t="n">
-        <v>601.5428246748836</v>
+        <v>513.8767765962745</v>
       </c>
       <c r="E44" t="n">
-        <v>358.0940480307835</v>
+        <v>479.3699953838642</v>
       </c>
       <c r="F44" t="n">
-        <v>358.0940480307835</v>
+        <v>254.6200886231962</v>
       </c>
       <c r="G44" t="n">
-        <v>114.6452713866835</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="H44" t="n">
-        <v>114.6452713866835</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>29.87018186252826</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>120.8151985263673</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>300.8910501110258</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>517.86667737393</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>651.1546253375461</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>800.3495754801942</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="U44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="V44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="W44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="X44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
       <c r="Y44" t="n">
-        <v>601.5428246748836</v>
+        <v>738.6266833569424</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8539544110741</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>18.55432526823062</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>143.1577526732823</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>363.435136289413</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>583.7125199055437</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>669.7322471561145</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>890.0096307722451</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>788.8401013251308</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="U45" t="n">
-        <v>487.2836868729568</v>
+        <v>615.4227567757997</v>
       </c>
       <c r="V45" t="n">
-        <v>252.1315786412141</v>
+        <v>390.6728500151318</v>
       </c>
       <c r="W45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.9229432544638</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>17.8001926154449</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>45.11431762315788</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>84.30235581538005</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>127.9932064708164</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>152.3324831057157</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6952875305729</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>255.5148970497678</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10196,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>251.6550141331723</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>316.3460615231987</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10676,10 +10676,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>295.4188858808542</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>381.6407992564182</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>313.9993571235165</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>381.1785887339921</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>370.386266895307</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>252.1172246555984</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>248.499138228429</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>267.0366937738877</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>365.0986521375057</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>364.0473544689305</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>361.0567874729355</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>364.6364416150796</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>218.2303254677482</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>365.0986521375057</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.8529234464008</v>
+        <v>357.1135504688497</v>
       </c>
       <c r="C2" t="n">
-        <v>321.1407193917789</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>210.2342346651944</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X3" t="n">
-        <v>166.9013677718529</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="4">
@@ -22752,25 +22752,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.5029409294872</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>210.5201962944453</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
-        <v>298.8713402530552</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,10 +22877,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.02566177341454</v>
+        <v>77.59148166841231</v>
       </c>
       <c r="S6" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>132.8841224430275</v>
       </c>
       <c r="J7" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22989,16 +22989,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1868569772623</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>367.6197750375201</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>298.8713402530552</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>119.5200543500343</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="10">
@@ -23181,10 +23181,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23226,22 +23226,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W10" t="n">
-        <v>242.3908259573624</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>368.4232466287389</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23396,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W12" t="n">
-        <v>207.562810781691</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,13 +23472,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>350.9622967362659</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>184.2242321325068</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="16">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,22 +23703,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>293.2832716465082</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>168.462540797361</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,22 +23943,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,10 +23989,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>193.5442607079387</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>286.8247010151207</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>66.21791707219469</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24186,16 +24186,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="23">
@@ -24214,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>266.9721829858474</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>70.35882518776063</v>
+        <v>160.5020493654335</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24463,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>234.2827816309986</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>37.29433897259889</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>334.4055473171627</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>212.7940713837205</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>86.76091123624096</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>71.01512708784531</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>115.6384868087092</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>142.885815260288</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>8.460324922403686</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>243.3324706909737</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>70.26853576158743</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>166.108865496399</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>176.2581827031613</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>100.4302473037934</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,13 +25210,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>62.73519759860741</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>88.70770365816117</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>244.5672587912209</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>100.4302473037934</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>20.40961427701626</v>
       </c>
       <c r="T38" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>12.30109809586276</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>88.70770365816117</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>117.6460565997561</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>149.3304912461172</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>12.65042834894587</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>391.1317233293937</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>126.7385610243517</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>147.2286929854077</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>163.7355309629923</v>
       </c>
     </row>
     <row r="42">
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>75.1730444487219</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>3.438974387913532</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>20.83763529005097</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>29.19257546785832</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>160.2314339704193</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,22 +25873,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>347.7686566719756</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>184.3736380486502</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>192.8003298220738</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>55.73714528154071</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,16 +25997,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.29817945636398</v>
       </c>
       <c r="W45" t="n">
-        <v>21.17305198522826</v>
+        <v>29.19257546785832</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364636.6663211566</v>
+        <v>350035.0587549793</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364636.6663211566</v>
+        <v>350035.0587549792</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364636.6663211565</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364636.6663211566</v>
+        <v>351669.2246312143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506790.0512205639</v>
+        <v>364636.6663211566</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506790.0512205641</v>
+        <v>364636.6663211564</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364133</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506790.0512205641</v>
+        <v>505367.8582364132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506790.0512205642</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506790.0512205641</v>
+        <v>493424.0501939183</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53798.85240803944</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="C2" t="n">
-        <v>53798.85240803944</v>
+        <v>51644.51686548875</v>
       </c>
       <c r="D2" t="n">
-        <v>53798.85240803942</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="E2" t="n">
+        <v>51885.6233062447</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51885.62330624471</v>
+      </c>
+      <c r="G2" t="n">
         <v>53798.85240803943</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>53798.85240803943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>74772.30263909958</v>
-      </c>
-      <c r="H2" t="n">
-        <v>74772.30263909959</v>
       </c>
       <c r="I2" t="n">
         <v>74772.30263909961</v>
@@ -26340,22 +26340,22 @@
         <v>74772.30263909961</v>
       </c>
       <c r="K2" t="n">
-        <v>74772.30263909962</v>
+        <v>74772.30263909959</v>
       </c>
       <c r="L2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.47088733959</v>
       </c>
       <c r="M2" t="n">
-        <v>74772.30263909958</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="N2" t="n">
-        <v>74772.30263909959</v>
+        <v>74562.4708873396</v>
       </c>
       <c r="O2" t="n">
-        <v>74772.30263909957</v>
+        <v>72800.26970074198</v>
       </c>
       <c r="P2" t="n">
-        <v>74772.30263909958</v>
+        <v>72800.26970074199</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>6703.395469327987</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22.21667432804715</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.21667432804714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.85668684891895</v>
+      </c>
+      <c r="G4" t="n">
         <v>36.87052286425572</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>36.87052286425573</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.87052286425572</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.87052286425572</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.87052286425573</v>
-      </c>
-      <c r="G4" t="n">
-        <v>179.5324977039669</v>
-      </c>
-      <c r="H4" t="n">
-        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
         <v>179.5324977039669</v>
@@ -26447,19 +26447,19 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>178.1052164621891</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039669</v>
+        <v>166.1186764043881</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
@@ -26499,19 +26499,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>14533.908932568</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>13528.14638773812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11886.95417877329</v>
+        <v>6372.26118102025</v>
       </c>
       <c r="C6" t="n">
-        <v>2902.751825470938</v>
+        <v>14958.21002703853</v>
       </c>
       <c r="D6" t="n">
-        <v>2902.751825470916</v>
+        <v>14468.73709170896</v>
       </c>
       <c r="E6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.19558453279</v>
       </c>
       <c r="F6" t="n">
-        <v>36530.35182547093</v>
+        <v>48708.1955845328</v>
       </c>
       <c r="G6" t="n">
-        <v>-6241.344142878843</v>
+        <v>45089.95201352624</v>
       </c>
       <c r="H6" t="n">
-        <v>47721.09075759349</v>
+        <v>49623.90640661335</v>
       </c>
       <c r="I6" t="n">
-        <v>47721.09075759351</v>
+        <v>6362.211014250797</v>
       </c>
       <c r="J6" t="n">
-        <v>36174.17264760262</v>
+        <v>52013.90484630194</v>
       </c>
       <c r="K6" t="n">
-        <v>47721.09075759352</v>
+        <v>58717.30031562991</v>
       </c>
       <c r="L6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.3242123969</v>
       </c>
       <c r="M6" t="n">
-        <v>47721.09075759348</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="N6" t="n">
-        <v>47721.09075759349</v>
+        <v>58626.32421239691</v>
       </c>
       <c r="O6" t="n">
-        <v>341.2125401296744</v>
+        <v>57862.29209750256</v>
       </c>
       <c r="P6" t="n">
-        <v>47721.09075759347</v>
+        <v>57862.29209750258</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26819,19 +26819,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O8" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330018</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>113.3808631277495</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37086,7 +37086,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>109.520980211154</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>96.25621047821812</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>164.0771737975209</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37560,7 +37560,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>82.76636136824696</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.0445548119737</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>109.520980211154</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>17.26614247315946</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>124.9026598518694</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>134.6342908723395</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>86.88861338441494</v>
       </c>
       <c r="O45" t="n">
-        <v>113.3808631277494</v>
+        <v>222.5024076930613</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
